--- a/Result/ARIMA/Service/IND.xlsx
+++ b/Result/ARIMA/Service/IND.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>33.80725873570828</v>
+        <v>0.3872817209427971</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>33.87161863576137</v>
+        <v>34.19454045665108</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>34.89683727774281</v>
+        <v>34.25890035670417</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>34.52160063054068</v>
+        <v>35.28411899868561</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>35.42081608496181</v>
+        <v>34.90888235148348</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>36.11499977204893</v>
+        <v>35.8080978059046</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>36.98846783564461</v>
+        <v>36.50228149299173</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>37.45227949228939</v>
+        <v>37.37574955658741</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>36.79644550543219</v>
+        <v>37.83956121323219</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>37.22939797954959</v>
+        <v>37.18372722637498</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>37.04478519464807</v>
+        <v>37.61667970049238</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>37.78569002371795</v>
+        <v>37.43206691559087</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>37.91256818206074</v>
+        <v>38.17297174466074</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>38.49068491702259</v>
+        <v>38.29984990300353</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>37.49630233983369</v>
+        <v>38.87796663796539</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>37.84966811833396</v>
+        <v>37.88358406077649</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>37.70932947359798</v>
+        <v>38.23694983927675</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>39.07955152360464</v>
+        <v>38.09661119454078</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>40.13256872693889</v>
+        <v>39.46683324454744</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>41.96573778685435</v>
+        <v>40.51985044788169</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>42.73292664295458</v>
+        <v>42.35301950779714</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>43.80896126298813</v>
+        <v>43.12020836389738</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>44.72882755413038</v>
+        <v>44.19624298393092</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>44.7046456533001</v>
+        <v>45.11610927507318</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>44.11485897224708</v>
+        <v>45.09192737424289</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>44.44293292274983</v>
+        <v>44.50214069318987</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>44.04323571148997</v>
+        <v>44.83021464369263</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>44.00815792391437</v>
+        <v>44.43051743243277</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>45.88254990700625</v>
+        <v>44.39543964485716</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>45.98488281191449</v>
+        <v>46.26983162794905</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>45.03374956261907</v>
+        <v>46.37216453285728</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>45.44214525076269</v>
+        <v>45.42103128356187</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>46.30114729808293</v>
+        <v>45.82942697170549</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>46.69871476936741</v>
+        <v>46.68842901902573</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>47.82241375588313</v>
+        <v>47.08599649031021</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>47.78374812041928</v>
+        <v>48.20969547682593</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>47.74940128997481</v>
+        <v>48.17102984136208</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>33.80725873570828</v>
+        <v>0.3386138405455644</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>33.87161863576137</v>
+        <v>34.14587257625384</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>34.89683727774281</v>
+        <v>34.21023247630693</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>34.52160063054068</v>
+        <v>35.23545111828837</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>35.42081608496181</v>
+        <v>34.86021447108624</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>36.11499977204893</v>
+        <v>35.75942992550737</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>36.98846783564461</v>
+        <v>36.45361361259449</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>37.45227949228939</v>
+        <v>37.32708167619018</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>36.79644550543219</v>
+        <v>37.79089333283495</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>37.22939797954959</v>
+        <v>37.13505934597775</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>37.04478519464807</v>
+        <v>37.56801182009515</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>37.78569002371795</v>
+        <v>37.38339903519363</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>37.91256818206074</v>
+        <v>38.12430386426351</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>38.49068491702259</v>
+        <v>38.2511820226063</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>37.49630233983369</v>
+        <v>38.82929875756815</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>37.84966811833396</v>
+        <v>37.83491618037925</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>37.70932947359798</v>
+        <v>38.18828195887952</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>39.07955152360464</v>
+        <v>38.04794331414355</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>40.13256872693889</v>
+        <v>39.41816536415021</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>41.96573778685435</v>
+        <v>40.47118256748445</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>42.73292664295458</v>
+        <v>42.30435162739991</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>43.80896126298813</v>
+        <v>43.07154048350014</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>44.72882755413038</v>
+        <v>44.14757510353369</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>44.7046456533001</v>
+        <v>45.06744139467595</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>44.11485897224708</v>
+        <v>45.04325949384566</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1235,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>44.44293292274983</v>
+        <v>44.45347281279264</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>44.04323571148997</v>
+        <v>44.7815467632954</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>44.00815792391437</v>
+        <v>44.38184955203553</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>45.88254990700625</v>
+        <v>44.34677176445993</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>45.98488281191449</v>
+        <v>46.22116374755181</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>45.03374956261907</v>
+        <v>46.32349665246005</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>45.44214525076269</v>
+        <v>45.37236340316463</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>46.30114729808293</v>
+        <v>45.78075909130825</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>46.69871476936741</v>
+        <v>46.63976113862849</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>47.82241375588313</v>
+        <v>47.03732860991298</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>47.78374812041928</v>
+        <v>48.1610275964287</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>47.74940128997481</v>
+        <v>48.12236196096485</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>47.67088996844124</v>
+        <v>48.08801513052038</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>48.43156631546972</v>
+        <v>48.0095038089868</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>50.10766891732897</v>
+        <v>48.77018015601529</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>48.43685677249766</v>
+        <v>50.44628275787453</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>47.69042660210175</v>
+        <v>48.77547061304323</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
